--- a/data/trans_orig/IPAQ_DICO-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IPAQ_DICO-Edad-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>102602</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>85828</v>
+        <v>85705</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>122829</v>
+        <v>122120</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2446043765263521</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2046144086103004</v>
+        <v>0.2043203610379223</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2928241209753231</v>
+        <v>0.2911350000101999</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>37</v>
@@ -763,19 +763,19 @@
         <v>37198</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>27074</v>
+        <v>26542</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>50254</v>
+        <v>50998</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.09399174731895271</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06841147152329222</v>
+        <v>0.06706682355639038</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1269833453171299</v>
+        <v>0.1288626862490965</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>133</v>
@@ -784,19 +784,19 @@
         <v>139800</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>118942</v>
+        <v>118038</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>163437</v>
+        <v>160527</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1714881040563909</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1459021058422336</v>
+        <v>0.1447933501099165</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2004821662223294</v>
+        <v>0.1969133324090712</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>316861</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>296634</v>
+        <v>297343</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>333635</v>
+        <v>333758</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7553956234736479</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7071758790246768</v>
+        <v>0.7088649999898002</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7953855913896996</v>
+        <v>0.7956796389620778</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>367</v>
@@ -834,19 +834,19 @@
         <v>358557</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>345501</v>
+        <v>344757</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>368681</v>
+        <v>369213</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9060082526810473</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8730166546828702</v>
+        <v>0.8711373137509022</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9315885284767079</v>
+        <v>0.932933176443609</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>664</v>
@@ -855,19 +855,19 @@
         <v>675418</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>651781</v>
+        <v>654691</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>696276</v>
+        <v>697180</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8285118959436091</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7995178337776705</v>
+        <v>0.8030866675909287</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8540978941577659</v>
+        <v>0.8552066498900833</v>
       </c>
     </row>
     <row r="6">
@@ -959,19 +959,19 @@
         <v>122712</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>103314</v>
+        <v>104766</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>144127</v>
+        <v>144257</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2078115254264455</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1749622105246901</v>
+        <v>0.1774209863181235</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2440773632379459</v>
+        <v>0.2442976272535923</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>42</v>
@@ -980,19 +980,19 @@
         <v>40717</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>29183</v>
+        <v>29137</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>53964</v>
+        <v>55031</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07225159005577392</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05178391309845873</v>
+        <v>0.0517036922031919</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09575883326196828</v>
+        <v>0.09765133670248249</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>158</v>
@@ -1001,19 +1001,19 @@
         <v>163429</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>139499</v>
+        <v>138815</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>188864</v>
+        <v>187706</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1416145574403638</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1208784042591796</v>
+        <v>0.1202857313379011</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.163654421527129</v>
+        <v>0.1626511642889227</v>
       </c>
     </row>
     <row r="8">
@@ -1030,19 +1030,19 @@
         <v>467784</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>446369</v>
+        <v>446239</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>487182</v>
+        <v>485730</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7921884745735545</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7559226367620542</v>
+        <v>0.7557023727464076</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8250377894753098</v>
+        <v>0.8225790136818765</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>537</v>
@@ -1051,19 +1051,19 @@
         <v>522827</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>509580</v>
+        <v>508513</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>534361</v>
+        <v>534407</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.927748409944226</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9042411667380317</v>
+        <v>0.9023486632975174</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9482160869015412</v>
+        <v>0.9482963077968081</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>988</v>
@@ -1072,19 +1072,19 @@
         <v>990611</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>965176</v>
+        <v>966334</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1014541</v>
+        <v>1015225</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8583854425596361</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8363455784728711</v>
+        <v>0.8373488357110773</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8791215957408206</v>
+        <v>0.879714268662099</v>
       </c>
     </row>
     <row r="9">
@@ -1176,19 +1176,19 @@
         <v>109720</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>91220</v>
+        <v>91236</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>130451</v>
+        <v>131391</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.163982842278433</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1363333082797928</v>
+        <v>0.1363575199943433</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1949656155282407</v>
+        <v>0.1963710880103198</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>50</v>
@@ -1197,19 +1197,19 @@
         <v>50368</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>36717</v>
+        <v>38045</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>64976</v>
+        <v>66173</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07615592928573875</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05551563315977607</v>
+        <v>0.05752283931394574</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.09824241347363252</v>
+        <v>0.1000523173330616</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>155</v>
@@ -1218,19 +1218,19 @@
         <v>160089</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>139141</v>
+        <v>137657</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>184012</v>
+        <v>184133</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1203238729182551</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1045796087841602</v>
+        <v>0.1034640117940036</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1383043574619599</v>
+        <v>0.1383959055994179</v>
       </c>
     </row>
     <row r="11">
@@ -1247,19 +1247,19 @@
         <v>559377</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>538646</v>
+        <v>537706</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>577877</v>
+        <v>577861</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8360171577215669</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.80503438447176</v>
+        <v>0.8036289119896809</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8636666917202073</v>
+        <v>0.8636424800056569</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>615</v>
@@ -1268,19 +1268,19 @@
         <v>611018</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>596410</v>
+        <v>595213</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>624669</v>
+        <v>623341</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9238440707142612</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9017575865263674</v>
+        <v>0.8999476826669384</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.944484366840224</v>
+        <v>0.9424771606860541</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1148</v>
@@ -1289,19 +1289,19 @@
         <v>1170394</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1146471</v>
+        <v>1146350</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1191342</v>
+        <v>1192826</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8796761270817449</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8616956425380401</v>
+        <v>0.8616040944005821</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8954203912158397</v>
+        <v>0.8965359882059963</v>
       </c>
     </row>
     <row r="12">
@@ -1393,19 +1393,19 @@
         <v>70163</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>55106</v>
+        <v>55086</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>88137</v>
+        <v>89382</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1086039988871384</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.08529672897939761</v>
+        <v>0.08526653976536151</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1364246143298894</v>
+        <v>0.1383519986766646</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>40</v>
@@ -1414,19 +1414,19 @@
         <v>43078</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>31207</v>
+        <v>30788</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>57481</v>
+        <v>56584</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06636812552775577</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04807854169561271</v>
+        <v>0.04743281092845498</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08855833088419915</v>
+        <v>0.08717650566812093</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>103</v>
@@ -1435,19 +1435,19 @@
         <v>113241</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>94163</v>
+        <v>92471</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>135004</v>
+        <v>134896</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08743667806786889</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07270604795292529</v>
+        <v>0.07139910100696768</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1042402330422569</v>
+        <v>0.1041567877399731</v>
       </c>
     </row>
     <row r="14">
@@ -1464,19 +1464,19 @@
         <v>575885</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>557911</v>
+        <v>556666</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>590942</v>
+        <v>590962</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8913960011128617</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8635753856701105</v>
+        <v>0.8616480013233354</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9147032710206023</v>
+        <v>0.9147334602346384</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>562</v>
@@ -1485,19 +1485,19 @@
         <v>605999</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>591596</v>
+        <v>592493</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>617870</v>
+        <v>618289</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9336318744722443</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9114416691158009</v>
+        <v>0.9128234943318785</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9519214583043875</v>
+        <v>0.952567189071545</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1081</v>
@@ -1506,19 +1506,19 @@
         <v>1181884</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1160121</v>
+        <v>1160229</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1200962</v>
+        <v>1202654</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9125633219321311</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8957597669577432</v>
+        <v>0.8958432122600269</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9272939520470748</v>
+        <v>0.9286008989930323</v>
       </c>
     </row>
     <row r="15">
@@ -1610,19 +1610,19 @@
         <v>41814</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>30554</v>
+        <v>30330</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>55126</v>
+        <v>55571</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.08749107110141927</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0639311977109705</v>
+        <v>0.06346208044262873</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1153464320225669</v>
+        <v>0.1162783034999036</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>8</v>
@@ -1631,19 +1631,19 @@
         <v>9245</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>4481</v>
+        <v>4514</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>17435</v>
+        <v>16527</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01860760269278265</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.009017905371308343</v>
+        <v>0.009084471285599182</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03509168104832074</v>
+        <v>0.03326444195292162</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>46</v>
@@ -1652,19 +1652,19 @@
         <v>51059</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>37817</v>
+        <v>38342</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>66543</v>
+        <v>66327</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.05238044210407123</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03879555891854811</v>
+        <v>0.03933418089888831</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06826572297767743</v>
+        <v>0.06804354184287412</v>
       </c>
     </row>
     <row r="17">
@@ -1681,19 +1681,19 @@
         <v>436104</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>422792</v>
+        <v>422347</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>447364</v>
+        <v>447588</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9125089288985807</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.884653567977433</v>
+        <v>0.8837216965000961</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9360688022890294</v>
+        <v>0.9365379195573712</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>425</v>
@@ -1702,19 +1702,19 @@
         <v>487604</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>479414</v>
+        <v>480322</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>492368</v>
+        <v>492335</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9813923973072174</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9649083189516793</v>
+        <v>0.9667355580470784</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9909820946286917</v>
+        <v>0.9909155287144008</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>811</v>
@@ -1723,19 +1723,19 @@
         <v>923708</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>908224</v>
+        <v>908440</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>936950</v>
+        <v>936425</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9476195578959288</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9317342770223235</v>
+        <v>0.9319564581571262</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.961204441081452</v>
+        <v>0.9606658191011119</v>
       </c>
     </row>
     <row r="18">
@@ -1827,19 +1827,19 @@
         <v>17748</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>10880</v>
+        <v>11024</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>27447</v>
+        <v>26865</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.05308606396467956</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03254234254301126</v>
+        <v>0.032974463167707</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.08209658739897692</v>
+        <v>0.08035581512665277</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>13</v>
@@ -1848,19 +1848,19 @@
         <v>14097</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>7463</v>
+        <v>7708</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>23906</v>
+        <v>24655</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03731683739534888</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.0197566175848171</v>
+        <v>0.02040456446152878</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06328383925770981</v>
+        <v>0.06526529575649261</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>31</v>
@@ -1869,19 +1869,19 @@
         <v>31845</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>21931</v>
+        <v>22536</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>44858</v>
+        <v>44995</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04472055137005435</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0307974120548575</v>
+        <v>0.03164718637725183</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.06299448929520893</v>
+        <v>0.06318758671369237</v>
       </c>
     </row>
     <row r="20">
@@ -1898,19 +1898,19 @@
         <v>316582</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>306883</v>
+        <v>307465</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>323450</v>
+        <v>323306</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9469139360353205</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9179034126010229</v>
+        <v>0.9196441848733473</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9674576574569885</v>
+        <v>0.9670255368322928</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>341</v>
@@ -1919,19 +1919,19 @@
         <v>363665</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>353856</v>
+        <v>353107</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>370299</v>
+        <v>370054</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9626831626046511</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9367161607422897</v>
+        <v>0.9347347042435079</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9802433824151826</v>
+        <v>0.9795954355384713</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>648</v>
@@ -1940,19 +1940,19 @@
         <v>680247</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>667234</v>
+        <v>667097</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>690161</v>
+        <v>689556</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9552794486299456</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9370055107047914</v>
+        <v>0.9368124132863079</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9692025879451426</v>
+        <v>0.9683528136227483</v>
       </c>
     </row>
     <row r="21">
@@ -2044,19 +2044,19 @@
         <v>11775</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>6428</v>
+        <v>6833</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>18983</v>
+        <v>19227</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04581555191941578</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02501233429297801</v>
+        <v>0.02658805005563422</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.07386324739752799</v>
+        <v>0.07481513440729104</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2</v>
@@ -2068,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>8308</v>
+        <v>8404</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.006722827311605425</v>
@@ -2077,7 +2077,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02076029064740973</v>
+        <v>0.02100072487906387</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>16</v>
@@ -2086,19 +2086,19 @@
         <v>14465</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>8387</v>
+        <v>8816</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>22430</v>
+        <v>23946</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02201080140770978</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01276250649735304</v>
+        <v>0.01341590527465042</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03413108693288311</v>
+        <v>0.03643808309891305</v>
       </c>
     </row>
     <row r="23">
@@ -2115,19 +2115,19 @@
         <v>245223</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>238015</v>
+        <v>237771</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>250570</v>
+        <v>250165</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9541844480805842</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9261367526024721</v>
+        <v>0.9251848655927092</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9749876657070223</v>
+        <v>0.973411949944366</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>299</v>
@@ -2136,7 +2136,7 @@
         <v>397479</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>391861</v>
+        <v>391765</v>
       </c>
       <c r="M23" s="5" t="n">
         <v>400169</v>
@@ -2145,7 +2145,7 @@
         <v>0.9932771726883945</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9792397093525903</v>
+        <v>0.978999275120936</v>
       </c>
       <c r="P23" s="6" t="n">
         <v>1</v>
@@ -2157,19 +2157,19 @@
         <v>642702</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>634737</v>
+        <v>633221</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>648780</v>
+        <v>648351</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9779891985922903</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9658689130671169</v>
+        <v>0.9635619169010871</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9872374935026469</v>
+        <v>0.9865840947253496</v>
       </c>
     </row>
     <row r="24">
@@ -2261,19 +2261,19 @@
         <v>476535</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>436527</v>
+        <v>437981</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>518459</v>
+        <v>516767</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1403905067155106</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1286040901304634</v>
+        <v>0.1290324943362736</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1527417490379025</v>
+        <v>0.1522432629283079</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>192</v>
@@ -2282,19 +2282,19 @@
         <v>197393</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>169849</v>
+        <v>173590</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>224760</v>
+        <v>227121</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.05568941290022587</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04791853468411063</v>
+        <v>0.04897385118138771</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.06341018957301164</v>
+        <v>0.06407620771999326</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>642</v>
@@ -2303,19 +2303,19 @@
         <v>673928</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>626394</v>
+        <v>621450</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>728650</v>
+        <v>724559</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.09712328630252978</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.09027292835624214</v>
+        <v>0.08956043061694993</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1050095672939261</v>
+        <v>0.1044199304806835</v>
       </c>
     </row>
     <row r="26">
@@ -2332,19 +2332,19 @@
         <v>2917815</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2875891</v>
+        <v>2877583</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2957823</v>
+        <v>2956369</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8596094932844894</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8472582509620975</v>
+        <v>0.8477567370716919</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8713959098695366</v>
+        <v>0.8709675056637259</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3146</v>
@@ -2353,19 +2353,19 @@
         <v>3347149</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3319782</v>
+        <v>3317421</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3374693</v>
+        <v>3370952</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9443105870997741</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9365898104269877</v>
+        <v>0.9359237922800067</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9520814653158893</v>
+        <v>0.951026148818612</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>5927</v>
@@ -2374,19 +2374,19 @@
         <v>6264964</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6210242</v>
+        <v>6214333</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6312498</v>
+        <v>6317442</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9028767136974702</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8949904327060738</v>
+        <v>0.8955800695193165</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9097270716437579</v>
+        <v>0.9104395693830497</v>
       </c>
     </row>
     <row r="27">
@@ -2721,19 +2721,19 @@
         <v>174874</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>146541</v>
+        <v>142434</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>208696</v>
+        <v>208717</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4288306262815841</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3593523800210248</v>
+        <v>0.3492811967951377</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5117699727778847</v>
+        <v>0.5118208548258947</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>45</v>
@@ -2742,19 +2742,19 @@
         <v>79338</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>59734</v>
+        <v>61036</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>103473</v>
+        <v>103310</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2188557058747914</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.164778358259778</v>
+        <v>0.1683687454726192</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2854340350720308</v>
+        <v>0.2849831577489965</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>119</v>
@@ -2763,19 +2763,19 @@
         <v>254212</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>215211</v>
+        <v>218398</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>293135</v>
+        <v>297253</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3300146775701979</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2793843658506828</v>
+        <v>0.2835211179306644</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3805441000717383</v>
+        <v>0.3858901595581571</v>
       </c>
     </row>
     <row r="5">
@@ -2792,19 +2792,19 @@
         <v>232919</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>199097</v>
+        <v>199076</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>261252</v>
+        <v>265359</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.571169373718416</v>
+        <v>0.5711693737184159</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4882300272221151</v>
+        <v>0.4881791451741053</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6406476199789751</v>
+        <v>0.6507188032048623</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>162</v>
@@ -2813,19 +2813,19 @@
         <v>283174</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>259039</v>
+        <v>259202</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>302778</v>
+        <v>301476</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7811442941252086</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7145659649279692</v>
+        <v>0.7150168422510035</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8352216417402218</v>
+        <v>0.8316312545273807</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>260</v>
@@ -2834,19 +2834,19 @@
         <v>516093</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>477170</v>
+        <v>473052</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>555094</v>
+        <v>551907</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.6699853224298022</v>
+        <v>0.6699853224298021</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6194558999282618</v>
+        <v>0.6141098404418427</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7206156341493171</v>
+        <v>0.7164788820693356</v>
       </c>
     </row>
     <row r="6">
@@ -2938,19 +2938,19 @@
         <v>147565</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>124274</v>
+        <v>122816</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>175265</v>
+        <v>174487</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3094313546330605</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2605918285706576</v>
+        <v>0.257536037584092</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3675167593168259</v>
+        <v>0.365884270153938</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>86</v>
@@ -2959,19 +2959,19 @@
         <v>92880</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>76222</v>
+        <v>75480</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>112267</v>
+        <v>112568</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1851184829725082</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1519170007931636</v>
+        <v>0.1504382733088142</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2237579218880178</v>
+        <v>0.2243579689666552</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>180</v>
@@ -2980,19 +2980,19 @@
         <v>240445</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>209505</v>
+        <v>209017</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>273221</v>
+        <v>273279</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2456970775924192</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2140811812159782</v>
+        <v>0.2135828092597266</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2791894134741889</v>
+        <v>0.2792479987142807</v>
       </c>
     </row>
     <row r="8">
@@ -3009,19 +3009,19 @@
         <v>329325</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>301625</v>
+        <v>302403</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>352616</v>
+        <v>354074</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.6905686453669395</v>
+        <v>0.6905686453669394</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6324832406831742</v>
+        <v>0.6341157298460619</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7394081714293425</v>
+        <v>0.7424639624159078</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>375</v>
@@ -3030,19 +3030,19 @@
         <v>408853</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>389466</v>
+        <v>389165</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>425511</v>
+        <v>426253</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8148815170274916</v>
+        <v>0.8148815170274917</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.776242078111982</v>
+        <v>0.7756420310333447</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8480829992068365</v>
+        <v>0.8495617266911856</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>583</v>
@@ -3051,19 +3051,19 @@
         <v>738178</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>705402</v>
+        <v>705344</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>769118</v>
+        <v>769606</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.7543029224075808</v>
+        <v>0.7543029224075809</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7208105865258111</v>
+        <v>0.7207520012857193</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7859188187840218</v>
+        <v>0.7864171907402735</v>
       </c>
     </row>
     <row r="9">
@@ -3155,19 +3155,19 @@
         <v>153527</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>130397</v>
+        <v>131504</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>175933</v>
+        <v>177103</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.2472901916071113</v>
+        <v>0.2472901916071114</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2100340899556381</v>
+        <v>0.2118178475890516</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2833797812492676</v>
+        <v>0.2852651484372155</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>171</v>
@@ -3176,19 +3176,19 @@
         <v>116718</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>101409</v>
+        <v>101025</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>131891</v>
+        <v>133046</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1872902557029341</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1627252426067833</v>
+        <v>0.1621085089755677</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2116379157220912</v>
+        <v>0.2134915793870837</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>309</v>
@@ -3197,19 +3197,19 @@
         <v>270245</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>242780</v>
+        <v>246274</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>301170</v>
+        <v>304023</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2172334130302778</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.195156309964853</v>
+        <v>0.1979648917876604</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2420925521113438</v>
+        <v>0.2443857257974771</v>
       </c>
     </row>
     <row r="11">
@@ -3226,19 +3226,19 @@
         <v>467310</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>444904</v>
+        <v>443734</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>490440</v>
+        <v>489333</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.7527098083928886</v>
+        <v>0.7527098083928888</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7166202187507325</v>
+        <v>0.7147348515627846</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7899659100443618</v>
+        <v>0.7881821524109484</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>677</v>
@@ -3247,19 +3247,19 @@
         <v>506475</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>491302</v>
+        <v>490147</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>521784</v>
+        <v>522168</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8127097442970659</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7883620842779087</v>
+        <v>0.7865084206129164</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8372747573932169</v>
+        <v>0.8378914910244322</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1085</v>
@@ -3268,19 +3268,19 @@
         <v>973784</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>942859</v>
+        <v>940006</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1001249</v>
+        <v>997755</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.7827665869697222</v>
+        <v>0.7827665869697221</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7579074478886563</v>
+        <v>0.7556142742025228</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8048436900351469</v>
+        <v>0.8020351082123396</v>
       </c>
     </row>
     <row r="12">
@@ -3372,19 +3372,19 @@
         <v>196296</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>174011</v>
+        <v>173082</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>221266</v>
+        <v>219130</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.2801757511574632</v>
+        <v>0.2801757511574631</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2483683554273548</v>
+        <v>0.247042424089815</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3158160154821172</v>
+        <v>0.3127666851389348</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>251</v>
@@ -3393,19 +3393,19 @@
         <v>152362</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>137306</v>
+        <v>135582</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>170969</v>
+        <v>169618</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2067645678029172</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1863323684475016</v>
+        <v>0.1839926783799094</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2320152820468757</v>
+        <v>0.2301822994146258</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>439</v>
@@ -3414,19 +3414,19 @@
         <v>348658</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>318754</v>
+        <v>320231</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>378319</v>
+        <v>378763</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2425440518281751</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2217410196999492</v>
+        <v>0.2227685483613606</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2631779708258136</v>
+        <v>0.2634865314474337</v>
       </c>
     </row>
     <row r="14">
@@ -3443,19 +3443,19 @@
         <v>504321</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>479351</v>
+        <v>481487</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>526606</v>
+        <v>527535</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.7198242488425369</v>
+        <v>0.7198242488425368</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6841839845178828</v>
+        <v>0.6872333148610651</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7516316445726452</v>
+        <v>0.7529575759101849</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>890</v>
@@ -3464,19 +3464,19 @@
         <v>584524</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>565917</v>
+        <v>567268</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>599580</v>
+        <v>601304</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7932354321970828</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7679847179531241</v>
+        <v>0.769817700585374</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8136676315524984</v>
+        <v>0.8160073216200905</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1367</v>
@@ -3485,19 +3485,19 @@
         <v>1088846</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1059185</v>
+        <v>1058741</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1118750</v>
+        <v>1117273</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.7574559481718248</v>
+        <v>0.7574559481718249</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7368220291741865</v>
+        <v>0.7365134685525659</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7782589803000506</v>
+        <v>0.7772314516386388</v>
       </c>
     </row>
     <row r="15">
@@ -3589,19 +3589,19 @@
         <v>142715</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>124396</v>
+        <v>121459</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>163617</v>
+        <v>162698</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2342108640980831</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2041459274010459</v>
+        <v>0.1993261671039608</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2685128642232014</v>
+        <v>0.2670037936218183</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>182</v>
@@ -3610,19 +3610,19 @@
         <v>100911</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>87908</v>
+        <v>87657</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>115866</v>
+        <v>116257</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1657394122804773</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1443829111355435</v>
+        <v>0.1439700873856868</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1903018788568952</v>
+        <v>0.1909442369138371</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>346</v>
@@ -3631,19 +3631,19 @@
         <v>243627</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>218468</v>
+        <v>220418</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>265819</v>
+        <v>270112</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1999889382256784</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1793367563180552</v>
+        <v>0.1809373881644118</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2182057923969259</v>
+        <v>0.2217304352449301</v>
       </c>
     </row>
     <row r="17">
@@ -3660,19 +3660,19 @@
         <v>466631</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>445729</v>
+        <v>446648</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>484950</v>
+        <v>487887</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7657891359019168</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7314871357767987</v>
+        <v>0.7329962063781817</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7958540725989544</v>
+        <v>0.8006738328960393</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>820</v>
@@ -3681,19 +3681,19 @@
         <v>507944</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>492989</v>
+        <v>492598</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>520947</v>
+        <v>521198</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.8342605877195225</v>
+        <v>0.8342605877195228</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8096981211431046</v>
+        <v>0.8090557630861629</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8556170888644563</v>
+        <v>0.8560299126143132</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1319</v>
@@ -3702,19 +3702,19 @@
         <v>974575</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>952383</v>
+        <v>948090</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>999734</v>
+        <v>997784</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.8000110617743217</v>
+        <v>0.8000110617743216</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7817942076030744</v>
+        <v>0.7782695647550697</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.820663243681945</v>
+        <v>0.8190626118355877</v>
       </c>
     </row>
     <row r="18">
@@ -3806,19 +3806,19 @@
         <v>98193</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>83704</v>
+        <v>83952</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>112937</v>
+        <v>113309</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2412125249162737</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2056195171146013</v>
+        <v>0.2062301576909721</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2774324629554213</v>
+        <v>0.278345974132794</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>150</v>
@@ -3827,19 +3827,19 @@
         <v>76263</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>64517</v>
+        <v>65560</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>87294</v>
+        <v>88960</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1736532550534674</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.14690725174453</v>
+        <v>0.149282685259097</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.198773157973241</v>
+        <v>0.2025656891734539</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>286</v>
@@ -3848,19 +3848,19 @@
         <v>174455</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>157077</v>
+        <v>154116</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>196382</v>
+        <v>191289</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2061520934377548</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.18561596218175</v>
+        <v>0.1821172188036439</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2320625514601156</v>
+        <v>0.2260442388272308</v>
       </c>
     </row>
     <row r="20">
@@ -3877,19 +3877,19 @@
         <v>308887</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>294143</v>
+        <v>293771</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>323376</v>
+        <v>323128</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7587874750837262</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7225675370445788</v>
+        <v>0.7216540258672061</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7943804828853986</v>
+        <v>0.7937698423090278</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>677</v>
@@ -3898,19 +3898,19 @@
         <v>362903</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>351872</v>
+        <v>350206</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>374649</v>
+        <v>373606</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.8263467449465328</v>
+        <v>0.8263467449465327</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8012268420267588</v>
+        <v>0.7974343108265463</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.85309274825547</v>
+        <v>0.8507173147409032</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1111</v>
@@ -3919,19 +3919,19 @@
         <v>671791</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>649864</v>
+        <v>654957</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>689169</v>
+        <v>692130</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.7938479065622451</v>
+        <v>0.7938479065622452</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7679374485398843</v>
+        <v>0.7739557611727692</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.81438403781825</v>
+        <v>0.8178827811963558</v>
       </c>
     </row>
     <row r="21">
@@ -4023,19 +4023,19 @@
         <v>43039</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>33904</v>
+        <v>34223</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>55263</v>
+        <v>54215</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1387468974917536</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1092963850223583</v>
+        <v>0.1103269309647436</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1781545833747991</v>
+        <v>0.1747740959883045</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>80</v>
@@ -4044,19 +4044,19 @@
         <v>38337</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>30286</v>
+        <v>30092</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>47340</v>
+        <v>48054</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.08251492265958567</v>
+        <v>0.08251492265958565</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.0651854725319196</v>
+        <v>0.06476879894507985</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1018927161414649</v>
+        <v>0.1034291635355682</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>139</v>
@@ -4065,19 +4065,19 @@
         <v>81376</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>69983</v>
+        <v>67301</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>96021</v>
+        <v>94090</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1050277019546637</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.09032346982420138</v>
+        <v>0.08686133547265158</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1239285435583626</v>
+        <v>0.1214371411126472</v>
       </c>
     </row>
     <row r="23">
@@ -4094,19 +4094,19 @@
         <v>267159</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>254935</v>
+        <v>255983</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>276294</v>
+        <v>275975</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8612531025082463</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8218454166252009</v>
+        <v>0.8252259040116947</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8907036149776419</v>
+        <v>0.8896730690352563</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>801</v>
@@ -4115,19 +4115,19 @@
         <v>426272</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>417269</v>
+        <v>416555</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>434323</v>
+        <v>434517</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9174850773404143</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8981072838585351</v>
+        <v>0.8965708364644315</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9348145274680805</v>
+        <v>0.9352312010549201</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1200</v>
@@ -4136,19 +4136,19 @@
         <v>693431</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>678786</v>
+        <v>680717</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>704824</v>
+        <v>707506</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8949722980453363</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8760714564416372</v>
+        <v>0.8785628588873531</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9096765301757986</v>
+        <v>0.9131386645273486</v>
       </c>
     </row>
     <row r="24">
@@ -4240,19 +4240,19 @@
         <v>956209</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>893638</v>
+        <v>896300</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1011882</v>
+        <v>1012211</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.2706690059288557</v>
+        <v>0.2706690059288558</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2529573915460782</v>
+        <v>0.2537109369915268</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2864280216038383</v>
+        <v>0.2865210698757321</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>965</v>
@@ -4261,19 +4261,19 @@
         <v>656809</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>620830</v>
+        <v>612203</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>702598</v>
+        <v>697856</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.1757604800294488</v>
+        <v>0.1757604800294487</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1661325182115049</v>
+        <v>0.1638240118585944</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1880135284967336</v>
+        <v>0.1867445756792352</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1818</v>
@@ -4282,19 +4282,19 @@
         <v>1613018</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1548330</v>
+        <v>1543421</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1698733</v>
+        <v>1681346</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2218818445557238</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2129835114569181</v>
+        <v>0.2123082676928461</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.23367255932033</v>
+        <v>0.2312808462134314</v>
       </c>
     </row>
     <row r="26">
@@ -4311,19 +4311,19 @@
         <v>2576553</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2520880</v>
+        <v>2520551</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2639124</v>
+        <v>2636462</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7293309940711443</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7135719783961617</v>
+        <v>0.7134789301242678</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7470426084539218</v>
+        <v>0.746289063008473</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>4402</v>
@@ -4332,19 +4332,19 @@
         <v>3080145</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3034356</v>
+        <v>3039098</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3116124</v>
+        <v>3124751</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8242395199705512</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8119864715032663</v>
+        <v>0.8132554243207649</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8338674817884951</v>
+        <v>0.8361759881414056</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6925</v>
@@ -4353,19 +4353,19 @@
         <v>5656698</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>5570983</v>
+        <v>5588370</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>5721386</v>
+        <v>5726295</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.7781181554442761</v>
+        <v>0.778118155444276</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7663274406796695</v>
+        <v>0.7687191537865681</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7870164885430819</v>
+        <v>0.7876917323071534</v>
       </c>
     </row>
     <row r="27">
